--- a/QTO_Template.xlsx
+++ b/QTO_Template.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Digital Construction Team\00_Digital Assets\00_DYNAMO\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Digital Construction Team\00_Projects\NORCAL_80CC\WORKING\2022.02.24_SAQTO\sa-qto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA8E78-11D8-4C3A-B8CF-3DAA2D1D782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276C2E0-84D2-4458-A37E-0F0A44B156D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3165" windowWidth="38640" windowHeight="21240" tabRatio="603" xr2:uid="{0F9A1793-E569-40DE-B41E-772ECFE913C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="603" xr2:uid="{0F9A1793-E569-40DE-B41E-772ECFE913C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="01 Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="03 Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 Input'!$H$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$H$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="278">
   <si>
     <t>Area</t>
   </si>
@@ -821,9 +821,6 @@
     <t>IfcName</t>
   </si>
   <si>
-    <t>concrete</t>
-  </si>
-  <si>
     <t>Concrete Basement Walls</t>
   </si>
   <si>
@@ -857,9 +854,6 @@
     <t>material: area</t>
   </si>
   <si>
-    <t>^((?!structural framing).)*$</t>
-  </si>
-  <si>
     <t>Concrete Basement Walls - brace</t>
   </si>
   <si>
@@ -872,16 +866,7 @@
     <t>Slab Edge</t>
   </si>
   <si>
-    <t>lower level</t>
-  </si>
-  <si>
-    <t>main level</t>
-  </si>
-  <si>
     <t>Rough Carpentry - shear walls</t>
-  </si>
-  <si>
-    <t>shear</t>
   </si>
   <si>
     <t>Concrete Slabs Basement (Interior)</t>
@@ -1299,7 +1284,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1378,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>93</v>
@@ -1448,16 +1433,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>3</v>
@@ -1476,9 +1458,6 @@
       <c r="D11" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1488,16 +1467,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>3</v>
@@ -1530,16 +1506,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>3</v>
@@ -1550,16 +1523,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>3</v>
@@ -1708,7 +1678,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
@@ -1735,22 +1705,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>0</v>
@@ -1817,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -1887,13 +1848,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2026,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
@@ -2040,13 +2001,13 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2140,7 +2101,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>4</v>
@@ -2168,7 +2129,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
@@ -2324,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>4</v>
@@ -2382,13 +2343,13 @@
         <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2424,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2873,7 +2834,7 @@
         <v>163</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,7 +3424,7 @@
         <v>**Slab Edge Schedule</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">

--- a/QTO_Template.xlsx
+++ b/QTO_Template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Digital Construction Team\00_Projects\NORCAL_80CC\WORKING\2022.02.24_SAQTO\sa-qto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C276C2E0-84D2-4458-A37E-0F0A44B156D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B607E3-FA5E-4EE6-9FA2-956C114ECD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="603" xr2:uid="{0F9A1793-E569-40DE-B41E-772ECFE913C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="03 Reference" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$H$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="279">
   <si>
     <t>Area</t>
   </si>
@@ -876,13 +876,16 @@
   </si>
   <si>
     <t>Foundation Footings</t>
+  </si>
+  <si>
+    <t>Concrete Wall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -907,6 +910,12 @@
       <sz val="10"/>
       <name val="DIN OT Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1280,11 +1289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BC1AFD-8AA2-4DD1-8929-9B71C382C698}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>94</v>
@@ -1523,10 +1532,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -1535,31 +1544,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>0</v>
@@ -1567,13 +1579,13 @@
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>0</v>
@@ -1581,10 +1593,13 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>0</v>
@@ -1595,32 +1610,29 @@
         <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1628,13 +1640,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1642,7 +1654,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>103</v>
@@ -1653,10 +1668,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>103</v>
@@ -1664,27 +1676,27 @@
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>131</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1692,29 +1704,26 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="32" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,13 +1731,16 @@
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>134</v>
+        <v>274</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1736,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -1750,13 +1762,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1764,13 +1776,13 @@
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1778,13 +1790,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1792,13 +1804,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1806,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>138</v>
@@ -1820,13 +1832,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1834,7 +1846,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
@@ -1848,46 +1860,46 @@
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="45" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,7 +1907,10 @@
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>0</v>
@@ -1906,10 +1921,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>0</v>
@@ -1917,10 +1929,10 @@
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>4</v>
@@ -1934,7 +1946,10 @@
         <v>58</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>0</v>
@@ -1945,10 +1960,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>0</v>
@@ -1959,7 +1971,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>4</v>
@@ -1970,10 +1982,10 @@
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
@@ -1984,10 +1996,10 @@
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>261</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
@@ -1996,18 +2008,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,43 +2027,43 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2059,7 +2071,7 @@
         <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>4</v>
@@ -2073,7 +2085,7 @@
         <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>4</v>
@@ -2087,7 +2099,7 @@
         <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>4</v>
@@ -2101,7 +2113,7 @@
         <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>266</v>
+        <v>113</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>4</v>
@@ -2115,7 +2127,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>4</v>
@@ -2129,7 +2141,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
@@ -2143,7 +2155,7 @@
         <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>4</v>
@@ -2157,7 +2169,7 @@
         <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>4</v>
@@ -2171,7 +2183,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>4</v>
@@ -2185,7 +2197,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>4</v>
@@ -2199,7 +2211,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>4</v>
@@ -2210,10 +2222,10 @@
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>4</v>
@@ -2227,7 +2239,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
@@ -2241,7 +2253,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>14</v>
@@ -2252,7 +2267,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>14</v>
@@ -2263,7 +2278,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>14</v>
@@ -2274,7 +2289,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>14</v>
@@ -2282,44 +2297,41 @@
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>130</v>
+        <v>265</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2327,29 +2339,29 @@
         <v>28</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2357,21 +2369,21 @@
         <v>16</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>268</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,21 +2391,27 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,52 +2419,46 @@
         <v>30</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="90" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="H90" s="1" t="s">
+    <row r="91" spans="1:8" ht="15" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2454,7 +2466,7 @@
         <v>117</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>4</v>
@@ -2463,23 +2475,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2487,7 +2499,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>4</v>
@@ -2501,32 +2513,32 @@
         <v>120</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2534,7 +2546,7 @@
         <v>126</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>4</v>
@@ -2543,46 +2555,61 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+    <row r="104" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104" s="1" t="s">
+      <c r="D105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="H1" xr:uid="{06078588-06E4-41FF-9F5B-8C7DF1103731}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
